--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H2">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9793220000000001</v>
+        <v>0.3622106666666667</v>
       </c>
       <c r="N2">
-        <v>2.937966</v>
+        <v>1.086632</v>
       </c>
       <c r="O2">
-        <v>0.1062026806546397</v>
+        <v>0.04682250814834585</v>
       </c>
       <c r="P2">
-        <v>0.1062026806546397</v>
+        <v>0.04682250814834586</v>
       </c>
       <c r="Q2">
-        <v>1.949670472514</v>
+        <v>0.9523357548044444</v>
       </c>
       <c r="R2">
-        <v>17.547034252626</v>
+        <v>8.57102179324</v>
       </c>
       <c r="S2">
-        <v>0.01192492111639961</v>
+        <v>0.006622180169416862</v>
       </c>
       <c r="T2">
-        <v>0.01192492111639961</v>
+        <v>0.006622180169416862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H3">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.642436333333334</v>
+        <v>3.642436333333333</v>
       </c>
       <c r="N3">
         <v>10.927309</v>
       </c>
       <c r="O3">
-        <v>0.3950044037751188</v>
+        <v>0.4708530714096335</v>
       </c>
       <c r="P3">
-        <v>0.3950044037751188</v>
+        <v>0.4708530714096336</v>
       </c>
       <c r="Q3">
-        <v>7.251497022544334</v>
+        <v>9.57680895141722</v>
       </c>
       <c r="R3">
-        <v>65.26347320289901</v>
+        <v>86.191280562755</v>
       </c>
       <c r="S3">
-        <v>0.04435289511162604</v>
+        <v>0.06659348239780384</v>
       </c>
       <c r="T3">
-        <v>0.04435289511162604</v>
+        <v>0.06659348239780384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H4">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.799308666666667</v>
+        <v>2.298172333333333</v>
       </c>
       <c r="N4">
-        <v>8.397926</v>
+        <v>6.894517</v>
       </c>
       <c r="O4">
-        <v>0.3035713323909453</v>
+        <v>0.2970817888773835</v>
       </c>
       <c r="P4">
-        <v>0.3035713323909453</v>
+        <v>0.2970817888773835</v>
       </c>
       <c r="Q4">
-        <v>5.572967268020666</v>
+        <v>6.042427474257223</v>
       </c>
       <c r="R4">
-        <v>50.156705412186</v>
+        <v>54.38184726831501</v>
       </c>
       <c r="S4">
-        <v>0.03408637305243195</v>
+        <v>0.0420167395724656</v>
       </c>
       <c r="T4">
-        <v>0.03408637305243195</v>
+        <v>0.04201673957246559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H5">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.800188</v>
+        <v>1.433004333333334</v>
       </c>
       <c r="N5">
-        <v>5.400564000000001</v>
+        <v>4.299013</v>
       </c>
       <c r="O5">
-        <v>0.1952215831792961</v>
+        <v>0.1852426315646371</v>
       </c>
       <c r="P5">
-        <v>0.1952215831792961</v>
+        <v>0.1852426315646371</v>
       </c>
       <c r="Q5">
-        <v>3.583880877356</v>
+        <v>3.767700371670556</v>
       </c>
       <c r="R5">
-        <v>32.25492789620401</v>
+        <v>33.90930334503501</v>
       </c>
       <c r="S5">
-        <v>0.02192036929088613</v>
+        <v>0.02619915356502045</v>
       </c>
       <c r="T5">
-        <v>0.02192036929088612</v>
+        <v>0.02619915356502044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.9793220000000001</v>
+        <v>0.3622106666666667</v>
       </c>
       <c r="N6">
-        <v>2.937966</v>
+        <v>1.086632</v>
       </c>
       <c r="O6">
-        <v>0.1062026806546397</v>
+        <v>0.04682250814834585</v>
       </c>
       <c r="P6">
-        <v>0.1062026806546397</v>
+        <v>0.04682250814834586</v>
       </c>
       <c r="Q6">
-        <v>11.19135231770667</v>
+        <v>4.139217932302222</v>
       </c>
       <c r="R6">
-        <v>100.72217085936</v>
+        <v>37.25296139072</v>
       </c>
       <c r="S6">
-        <v>0.06845053841452668</v>
+        <v>0.02878254519994897</v>
       </c>
       <c r="T6">
-        <v>0.06845053841452668</v>
+        <v>0.02878254519994897</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.642436333333334</v>
+        <v>3.642436333333333</v>
       </c>
       <c r="N7">
         <v>10.927309</v>
       </c>
       <c r="O7">
-        <v>0.3950044037751188</v>
+        <v>0.4708530714096335</v>
       </c>
       <c r="P7">
-        <v>0.3950044037751188</v>
+        <v>0.4708530714096336</v>
       </c>
       <c r="Q7">
-        <v>41.62449970607112</v>
+        <v>41.62449970607111</v>
       </c>
       <c r="R7">
-        <v>374.6204973546401</v>
+        <v>374.62049735464</v>
       </c>
       <c r="S7">
-        <v>0.2545911642516976</v>
+        <v>0.2894409194707216</v>
       </c>
       <c r="T7">
-        <v>0.2545911642516976</v>
+        <v>0.2894409194707216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.799308666666667</v>
+        <v>2.298172333333333</v>
       </c>
       <c r="N8">
-        <v>8.397926</v>
+        <v>6.894517</v>
       </c>
       <c r="O8">
-        <v>0.3035713323909453</v>
+        <v>0.2970817888773835</v>
       </c>
       <c r="P8">
-        <v>0.3035713323909453</v>
+        <v>0.2970817888773835</v>
       </c>
       <c r="Q8">
-        <v>31.98952901566222</v>
+        <v>26.26271672559111</v>
       </c>
       <c r="R8">
-        <v>287.90576114096</v>
+        <v>236.36445053032</v>
       </c>
       <c r="S8">
-        <v>0.1956600438076385</v>
+        <v>0.1826209307146454</v>
       </c>
       <c r="T8">
-        <v>0.1956600438076385</v>
+        <v>0.1826209307146454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.800188</v>
+        <v>1.433004333333334</v>
       </c>
       <c r="N9">
-        <v>5.400564000000001</v>
+        <v>4.299013</v>
       </c>
       <c r="O9">
-        <v>0.1952215831792961</v>
+        <v>0.1852426315646371</v>
       </c>
       <c r="P9">
-        <v>0.1952215831792961</v>
+        <v>0.1852426315646371</v>
       </c>
       <c r="Q9">
-        <v>20.57192439882667</v>
+        <v>16.37587674649778</v>
       </c>
       <c r="R9">
-        <v>185.1473195894401</v>
+        <v>147.38289071848</v>
       </c>
       <c r="S9">
-        <v>0.1258256608626886</v>
+        <v>0.1138716106167205</v>
       </c>
       <c r="T9">
-        <v>0.1258256608626886</v>
+        <v>0.1138716106167205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H10">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.9793220000000001</v>
+        <v>0.3622106666666667</v>
       </c>
       <c r="N10">
-        <v>2.937966</v>
+        <v>1.086632</v>
       </c>
       <c r="O10">
-        <v>0.1062026806546397</v>
+        <v>0.04682250814834585</v>
       </c>
       <c r="P10">
-        <v>0.1062026806546397</v>
+        <v>0.04682250814834586</v>
       </c>
       <c r="Q10">
-        <v>4.000676615418667</v>
+        <v>1.53842098664</v>
       </c>
       <c r="R10">
-        <v>36.006089538768</v>
+        <v>13.84578887976</v>
       </c>
       <c r="S10">
-        <v>0.02446964947341869</v>
+        <v>0.01069759367801339</v>
       </c>
       <c r="T10">
-        <v>0.02446964947341869</v>
+        <v>0.01069759367801339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H11">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.642436333333334</v>
+        <v>3.642436333333333</v>
       </c>
       <c r="N11">
         <v>10.927309</v>
       </c>
       <c r="O11">
-        <v>0.3950044037751188</v>
+        <v>0.4708530714096335</v>
       </c>
       <c r="P11">
-        <v>0.3950044037751188</v>
+        <v>0.4708530714096336</v>
       </c>
       <c r="Q11">
-        <v>14.87989635882578</v>
+        <v>15.47055626293</v>
       </c>
       <c r="R11">
-        <v>133.919067229432</v>
+        <v>139.23500636637</v>
       </c>
       <c r="S11">
-        <v>0.0910110671524903</v>
+        <v>0.1075763567390789</v>
       </c>
       <c r="T11">
-        <v>0.09101106715249031</v>
+        <v>0.1075763567390789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H12">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.799308666666667</v>
+        <v>2.298172333333333</v>
       </c>
       <c r="N12">
-        <v>8.397926</v>
+        <v>6.894517</v>
       </c>
       <c r="O12">
-        <v>0.3035713323909453</v>
+        <v>0.2970817888773835</v>
       </c>
       <c r="P12">
-        <v>0.3035713323909453</v>
+        <v>0.2970817888773835</v>
       </c>
       <c r="Q12">
-        <v>11.43559393342755</v>
+        <v>9.761050333089999</v>
       </c>
       <c r="R12">
-        <v>102.920345400848</v>
+        <v>87.84945299781</v>
       </c>
       <c r="S12">
-        <v>0.06994441240086138</v>
+        <v>0.06787462680296164</v>
       </c>
       <c r="T12">
-        <v>0.0699444124008614</v>
+        <v>0.06787462680296164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H13">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.800188</v>
+        <v>1.433004333333334</v>
       </c>
       <c r="N13">
-        <v>5.400564000000001</v>
+        <v>4.299013</v>
       </c>
       <c r="O13">
-        <v>0.1952215831792961</v>
+        <v>0.1852426315646371</v>
       </c>
       <c r="P13">
-        <v>0.1952215831792961</v>
+        <v>0.1852426315646371</v>
       </c>
       <c r="Q13">
-        <v>7.354036808074667</v>
+        <v>6.08641363501</v>
       </c>
       <c r="R13">
-        <v>66.18633127267201</v>
+        <v>54.77772271509001</v>
       </c>
       <c r="S13">
-        <v>0.04498006717530562</v>
+        <v>0.0423226025834849</v>
       </c>
       <c r="T13">
-        <v>0.04498006717530562</v>
+        <v>0.0423226025834849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H14">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.9793220000000001</v>
+        <v>0.3622106666666667</v>
       </c>
       <c r="N14">
-        <v>2.937966</v>
+        <v>1.086632</v>
       </c>
       <c r="O14">
-        <v>0.1062026806546397</v>
+        <v>0.04682250814834585</v>
       </c>
       <c r="P14">
-        <v>0.1062026806546397</v>
+        <v>0.04682250814834586</v>
       </c>
       <c r="Q14">
-        <v>0.2219568024866667</v>
+        <v>0.1035703972897778</v>
       </c>
       <c r="R14">
-        <v>1.99761122238</v>
+        <v>0.9321335756080001</v>
       </c>
       <c r="S14">
-        <v>0.001357571650294756</v>
+        <v>0.0007201891009666326</v>
       </c>
       <c r="T14">
-        <v>0.001357571650294756</v>
+        <v>0.0007201891009666327</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H15">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.642436333333334</v>
+        <v>3.642436333333333</v>
       </c>
       <c r="N15">
         <v>10.927309</v>
       </c>
       <c r="O15">
-        <v>0.3950044037751188</v>
+        <v>0.4708530714096335</v>
       </c>
       <c r="P15">
-        <v>0.3950044037751188</v>
+        <v>0.4708530714096336</v>
       </c>
       <c r="Q15">
-        <v>0.8255339120411112</v>
+        <v>1.041517031007889</v>
       </c>
       <c r="R15">
-        <v>7.429805208369999</v>
+        <v>9.373653279071</v>
       </c>
       <c r="S15">
-        <v>0.005049277259304819</v>
+        <v>0.007242312802029198</v>
       </c>
       <c r="T15">
-        <v>0.005049277259304819</v>
+        <v>0.007242312802029199</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H16">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.799308666666667</v>
+        <v>2.298172333333333</v>
       </c>
       <c r="N16">
-        <v>8.397926</v>
+        <v>6.894517</v>
       </c>
       <c r="O16">
-        <v>0.3035713323909453</v>
+        <v>0.2970817888773835</v>
       </c>
       <c r="P16">
-        <v>0.3035713323909453</v>
+        <v>0.2970817888773835</v>
       </c>
       <c r="Q16">
-        <v>0.6344446472422222</v>
+        <v>0.657138630935889</v>
       </c>
       <c r="R16">
-        <v>5.710001825179999</v>
+        <v>5.914247678423001</v>
       </c>
       <c r="S16">
-        <v>0.003880503130013499</v>
+        <v>0.004569491787310851</v>
       </c>
       <c r="T16">
-        <v>0.003880503130013499</v>
+        <v>0.004569491787310851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H17">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.800188</v>
+        <v>1.433004333333334</v>
       </c>
       <c r="N17">
-        <v>5.400564000000001</v>
+        <v>4.299013</v>
       </c>
       <c r="O17">
-        <v>0.1952215831792961</v>
+        <v>0.1852426315646371</v>
       </c>
       <c r="P17">
-        <v>0.1952215831792961</v>
+        <v>0.1852426315646371</v>
       </c>
       <c r="Q17">
-        <v>0.4080006089466667</v>
+        <v>0.4097527814052223</v>
       </c>
       <c r="R17">
-        <v>3.67200548052</v>
+        <v>3.687775032647001</v>
       </c>
       <c r="S17">
-        <v>0.002495485850415713</v>
+        <v>0.00284926479941127</v>
       </c>
       <c r="T17">
-        <v>0.002495485850415713</v>
+        <v>0.00284926479941127</v>
       </c>
     </row>
   </sheetData>
